--- a/Computer_Science_CS/4700_Database_Management/Excel Table data for project.xlsx
+++ b/Computer_Science_CS/4700_Database_Management/Excel Table data for project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CWF\GitHub\College_Courses\Computer_Science_CS\4700_Database_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C01F183-6855-4B5C-B745-E015F36C4448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191AEC54-3922-4FD9-B616-A046A7C11C2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{4BA7C107-2613-45E6-9465-717CD4711F58}"/>
   </bookViews>
@@ -735,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825E227C-D05A-4E33-AE3F-27BCBFCD53C6}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
-        <v>2116713492</v>
+        <v>9731265483</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
-        <v>7649803654</v>
+        <v>9986431026</v>
       </c>
       <c r="B33">
         <v>9</v>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
-        <v>7649803654</v>
+        <v>9986431026</v>
       </c>
       <c r="B35">
         <v>7</v>

--- a/Computer_Science_CS/4700_Database_Management/Excel Table data for project.xlsx
+++ b/Computer_Science_CS/4700_Database_Management/Excel Table data for project.xlsx
@@ -8,16 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CWF\GitHub\College_Courses\Computer_Science_CS\4700_Database_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191AEC54-3922-4FD9-B616-A046A7C11C2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F46430-1B63-4E5E-B745-F4ED26A89174}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{4BA7C107-2613-45E6-9465-717CD4711F58}"/>
   </bookViews>
   <sheets>
     <sheet name="Table Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Query 1" sheetId="2" r:id="rId2"/>
-    <sheet name="Query 2" sheetId="3" r:id="rId3"/>
-    <sheet name="Query 3" sheetId="4" r:id="rId4"/>
-    <sheet name="Query 4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="89">
   <si>
     <t>EMPLOYEE</t>
   </si>
@@ -85,9 +81,6 @@
     <t>CEO ID</t>
   </si>
   <si>
-    <t>Total Number of Employees</t>
-  </si>
-  <si>
     <t>WORKS_ON</t>
   </si>
   <si>
@@ -217,9 +210,6 @@
     <t>Ohio</t>
   </si>
   <si>
-    <t>Mike</t>
-  </si>
-  <si>
     <t>NULL</t>
   </si>
   <si>
@@ -302,6 +292,12 @@
   </si>
   <si>
     <t>Front-End &amp; Back-End Development</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>John Man Doe</t>
   </si>
 </sst>
 </file>
@@ -424,13 +420,12 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CE74B53B-24BC-4900-B9A2-62B685DF2E78}" name="Table4" displayName="Table4" ref="A22:D23" totalsRowShown="0">
-  <autoFilter ref="A22:D23" xr:uid="{69FF3419-C190-4A84-A055-AAFDA62CBAB6}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CE74B53B-24BC-4900-B9A2-62B685DF2E78}" name="Table4" displayName="Table4" ref="A22:C23" totalsRowShown="0">
+  <autoFilter ref="A22:C23" xr:uid="{69FF3419-C190-4A84-A055-AAFDA62CBAB6}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{6BE4BCC5-1EC8-4529-8D65-FE6062DC73A7}" name="CEO ID"/>
     <tableColumn id="2" xr3:uid="{B1496267-7092-4517-8203-007E28373622}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{C360C9D3-B354-46BE-9AE3-A3272E33C15F}" name="Locations"/>
-    <tableColumn id="4" xr3:uid="{E1306AD6-984C-40EB-991A-ADFCE2D921C1}" name="Total Number of Employees"/>
+    <tableColumn id="3" xr3:uid="{C360C9D3-B354-46BE-9AE3-A3272E33C15F}" name="Location"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -735,15 +730,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825E227C-D05A-4E33-AE3F-27BCBFCD53C6}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="29.20703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.68359375" customWidth="1"/>
-    <col min="3" max="3" width="14.7890625" customWidth="1"/>
+    <col min="3" max="3" width="19.5234375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.05078125" customWidth="1"/>
     <col min="5" max="5" width="20.5234375" customWidth="1"/>
     <col min="6" max="6" width="9.7890625" customWidth="1"/>
@@ -783,28 +778,28 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
-        <v>2754135151</v>
+        <v>2147483647</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>32</v>
       </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
       <c r="G3">
-        <v>24</v>
+        <v>24.36</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -812,71 +807,71 @@
         <v>2116713492</v>
       </c>
       <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>36</v>
       </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4">
-        <v>1000</v>
+        <v>1000.99</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
-        <v>7649803654</v>
+        <v>2117482447</v>
       </c>
       <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>42</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>43</v>
       </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
       <c r="G5">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="H5">
-        <v>56</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
-        <v>4687901364</v>
+        <v>2101233647</v>
       </c>
       <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
         <v>62</v>
       </c>
-      <c r="C6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" t="s">
-        <v>64</v>
-      </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6">
         <v>31.45</v>
@@ -887,74 +882,74 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
-        <v>2350978364</v>
+        <v>2133983647</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7">
         <v>18.5</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
-        <v>6592648702</v>
+        <v>2141224033</v>
       </c>
       <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
         <v>67</v>
       </c>
-      <c r="C8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" t="s">
-        <v>69</v>
-      </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8">
         <v>50.87</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
-        <v>6843513526</v>
+        <v>2147243627</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9">
         <v>200.2</v>
@@ -965,22 +960,22 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
-        <v>8974346416</v>
+        <v>2021489647</v>
       </c>
       <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" t="s">
         <v>72</v>
       </c>
-      <c r="C10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" t="s">
-        <v>74</v>
-      </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>45.54</v>
@@ -991,22 +986,22 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
-        <v>4666646326</v>
+        <v>2005423647</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11">
         <v>21.56</v>
@@ -1036,58 +1031,58 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15">
-        <v>9413664246</v>
+        <v>2350978364</v>
       </c>
       <c r="C15">
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16">
-        <v>9986431026</v>
+        <v>7649803654</v>
       </c>
       <c r="C16">
         <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17">
-        <v>9431259964</v>
+        <v>2147483647</v>
       </c>
       <c r="C17">
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B18">
-        <v>9731265483</v>
+        <v>8974346416</v>
       </c>
       <c r="C18">
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1103,45 +1098,39 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
-        <v>1987643280</v>
+        <v>2116713492</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23">
-        <v>200</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
         <v>18</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>19</v>
-      </c>
-      <c r="C26" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
-        <v>2754135151</v>
+        <v>2147483647</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1251,7 +1240,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1259,16 +1248,16 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" t="s">
         <v>23</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>24</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>25</v>
-      </c>
-      <c r="E39" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1276,16 +1265,16 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D40">
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1293,16 +1282,16 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D41">
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1310,16 +1299,16 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D42">
         <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1327,16 +1316,16 @@
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D43">
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1344,16 +1333,16 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D44">
         <v>23</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1361,16 +1350,16 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D45">
         <v>23</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1378,16 +1367,16 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D46">
         <v>7</v>
       </c>
       <c r="E46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1395,16 +1384,16 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D47">
         <v>7</v>
       </c>
       <c r="E47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1412,16 +1401,16 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" t="s">
         <v>55</v>
-      </c>
-      <c r="C48" t="s">
-        <v>56</v>
       </c>
       <c r="D48">
         <v>7</v>
       </c>
       <c r="E48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1429,34 +1418,34 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D49">
         <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B53">
         <v>85</v>
@@ -1464,7 +1453,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B54">
         <v>21</v>
@@ -1472,7 +1461,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B55">
         <v>56</v>
@@ -1480,7 +1469,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B56">
         <v>75</v>
@@ -1488,7 +1477,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B57">
         <v>56</v>
@@ -1496,7 +1485,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B58">
         <v>40</v>
@@ -1504,7 +1493,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B59">
         <v>25</v>
@@ -1512,7 +1501,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B60">
         <v>16</v>
@@ -1520,7 +1509,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B61">
         <v>5</v>
@@ -1528,7 +1517,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B62">
         <v>30</v>
@@ -1545,60 +1534,4 @@
     <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3006A2-2F39-466D-8230-C35ED1470981}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F689569-71EC-4D3F-BACD-4E327DB901C5}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78C5AC5-A0EF-49A4-997D-31999F1A3E1A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA20FFE-1B17-42ED-AA84-A0D3AAFD85B0}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>